--- a/data/0. old data/0. raw/2016/bgp.xlsx
+++ b/data/0. old data/0. raw/2016/bgp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="15480"/>
+    <workbookView xWindow="3420" yWindow="1800" windowWidth="19320" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="mylan" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="309">
   <si>
     <t>sponsorship</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>Ch. Des Botchets 24</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>FentEvent GmbH</t>
@@ -1907,9 +1904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1969,13 +1966,13 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -1997,13 +1994,13 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
@@ -2025,13 +2022,13 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
@@ -2055,13 +2052,13 @@
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -2083,16 +2080,16 @@
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2113,13 +2110,13 @@
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
@@ -2141,13 +2138,13 @@
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -2171,16 +2168,16 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -2199,16 +2196,16 @@
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2227,13 +2224,13 @@
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
@@ -2255,16 +2252,16 @@
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -2283,13 +2280,13 @@
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>29</v>
@@ -2311,13 +2308,13 @@
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>30</v>
@@ -2339,13 +2336,13 @@
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -2367,13 +2364,13 @@
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>22</v>
@@ -2397,16 +2394,16 @@
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -2425,16 +2422,16 @@
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -2453,16 +2450,16 @@
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -2481,13 +2478,13 @@
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -2511,16 +2508,16 @@
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -2541,13 +2538,13 @@
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>31</v>
@@ -2569,13 +2566,13 @@
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>32</v>
@@ -2597,13 +2594,13 @@
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>33</v>
@@ -2627,13 +2624,13 @@
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
@@ -2657,13 +2654,13 @@
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>35</v>
@@ -2685,13 +2682,13 @@
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>36</v>
@@ -2715,13 +2712,13 @@
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>22</v>
@@ -2745,13 +2742,13 @@
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>37</v>
@@ -2773,13 +2770,13 @@
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
@@ -2801,16 +2798,16 @@
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1">
       <c r="A31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2829,13 +2826,13 @@
     </row>
     <row r="32" spans="1:13" s="1" customFormat="1">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>39</v>
@@ -2857,13 +2854,13 @@
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1">
       <c r="A33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>40</v>
@@ -2885,16 +2882,16 @@
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2915,13 +2912,13 @@
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>41</v>
@@ -2943,13 +2940,13 @@
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>42</v>
@@ -2971,16 +2968,16 @@
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -2999,13 +2996,13 @@
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1">
       <c r="A38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>43</v>
@@ -3027,13 +3024,13 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1">
       <c r="A39" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>44</v>
@@ -3057,13 +3054,13 @@
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1">
       <c r="A40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>45</v>
@@ -3087,13 +3084,13 @@
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>24</v>
@@ -3117,13 +3114,13 @@
     </row>
     <row r="42" spans="1:13" s="6" customFormat="1">
       <c r="A42" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>31</v>
@@ -3148,10 +3145,10 @@
         <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>47</v>
@@ -3176,10 +3173,10 @@
         <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>49</v>
@@ -3201,13 +3198,13 @@
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>50</v>
@@ -3229,13 +3226,13 @@
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1">
       <c r="A46" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>51</v>
@@ -3257,13 +3254,13 @@
     </row>
     <row r="47" spans="1:13" s="1" customFormat="1">
       <c r="A47" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>52</v>
@@ -3285,13 +3282,13 @@
     </row>
     <row r="48" spans="1:13" s="1" customFormat="1">
       <c r="A48" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>53</v>
@@ -3313,13 +3310,13 @@
     </row>
     <row r="49" spans="1:13" s="1" customFormat="1">
       <c r="A49" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>54</v>
@@ -3341,13 +3338,13 @@
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1">
       <c r="A50" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>55</v>
@@ -3369,13 +3366,13 @@
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>56</v>
@@ -3397,16 +3394,16 @@
     </row>
     <row r="52" spans="1:13" s="1" customFormat="1">
       <c r="A52" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8">
@@ -3425,13 +3422,13 @@
     </row>
     <row r="53" spans="1:13" s="1" customFormat="1">
       <c r="A53" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>57</v>
@@ -3456,10 +3453,10 @@
         <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>59</v>
@@ -3484,10 +3481,10 @@
         <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>61</v>
@@ -3512,10 +3509,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>63</v>
@@ -3537,13 +3534,13 @@
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1">
       <c r="A57" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>64</v>
@@ -3570,10 +3567,10 @@
         <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>66</v>
@@ -3595,16 +3592,16 @@
     </row>
     <row r="59" spans="1:13" s="1" customFormat="1">
       <c r="A59" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8">
@@ -3623,16 +3620,13 @@
     </row>
     <row r="60" spans="1:13" s="1" customFormat="1">
       <c r="A60" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8">
@@ -3651,13 +3645,13 @@
     </row>
     <row r="61" spans="1:13" s="1" customFormat="1">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>57</v>
@@ -3679,16 +3673,16 @@
     </row>
     <row r="62" spans="1:13" s="1" customFormat="1">
       <c r="A62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8">
@@ -3707,16 +3701,16 @@
     </row>
     <row r="63" spans="1:13" s="1" customFormat="1">
       <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8">
@@ -3735,16 +3729,16 @@
     </row>
     <row r="64" spans="1:13" s="1" customFormat="1">
       <c r="A64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8">
@@ -3763,16 +3757,16 @@
     </row>
     <row r="65" spans="1:13" s="1" customFormat="1">
       <c r="A65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8">
@@ -3791,16 +3785,16 @@
     </row>
     <row r="66" spans="1:13" s="1" customFormat="1">
       <c r="A66" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8">
@@ -3819,16 +3813,16 @@
     </row>
     <row r="67" spans="1:13" s="1" customFormat="1">
       <c r="A67" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8">
@@ -3847,16 +3841,16 @@
     </row>
     <row r="68" spans="1:13" s="1" customFormat="1">
       <c r="A68" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8">
@@ -3875,16 +3869,16 @@
     </row>
     <row r="69" spans="1:13" s="1" customFormat="1">
       <c r="A69" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8">
@@ -3903,13 +3897,13 @@
     </row>
     <row r="70" spans="1:13" s="1" customFormat="1">
       <c r="A70" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>29</v>
@@ -3931,16 +3925,16 @@
     </row>
     <row r="71" spans="1:13" s="1" customFormat="1">
       <c r="A71" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8">
@@ -3961,16 +3955,16 @@
     </row>
     <row r="72" spans="1:13" s="1" customFormat="1">
       <c r="A72" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8">
@@ -3989,16 +3983,16 @@
     </row>
     <row r="73" spans="1:13" s="1" customFormat="1">
       <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8">
@@ -4019,16 +4013,16 @@
     </row>
     <row r="74" spans="1:13" s="1" customFormat="1">
       <c r="A74" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8">
@@ -4047,13 +4041,13 @@
     </row>
     <row r="75" spans="1:13" s="1" customFormat="1">
       <c r="A75" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>49</v>
@@ -4075,16 +4069,16 @@
     </row>
     <row r="76" spans="1:13" s="1" customFormat="1">
       <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8">
@@ -4103,16 +4097,16 @@
     </row>
     <row r="77" spans="1:13" s="1" customFormat="1">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8">
@@ -4131,13 +4125,13 @@
     </row>
     <row r="78" spans="1:13" s="1" customFormat="1">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>49</v>
@@ -4159,16 +4153,16 @@
     </row>
     <row r="79" spans="1:13" s="1" customFormat="1">
       <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8">
@@ -4187,16 +4181,16 @@
     </row>
     <row r="80" spans="1:13" s="1" customFormat="1">
       <c r="A80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8">
@@ -4215,16 +4209,16 @@
     </row>
     <row r="81" spans="1:13" s="1" customFormat="1">
       <c r="A81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8">
@@ -4243,13 +4237,13 @@
     </row>
     <row r="82" spans="1:13" s="1" customFormat="1">
       <c r="A82" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>49</v>
@@ -4271,16 +4265,16 @@
     </row>
     <row r="83" spans="1:13" s="1" customFormat="1">
       <c r="A83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8">
@@ -4299,16 +4293,16 @@
     </row>
     <row r="84" spans="1:13" s="1" customFormat="1">
       <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8">
@@ -4327,16 +4321,16 @@
     </row>
     <row r="85" spans="1:13" s="1" customFormat="1">
       <c r="A85" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8">
@@ -4355,13 +4349,13 @@
     </row>
     <row r="86" spans="1:13" s="1" customFormat="1">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>31</v>
@@ -4383,16 +4377,16 @@
     </row>
     <row r="87" spans="1:13" s="1" customFormat="1">
       <c r="A87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8">
@@ -4411,16 +4405,13 @@
     </row>
     <row r="88" spans="1:13" s="1" customFormat="1">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8">
@@ -4439,16 +4430,16 @@
     </row>
     <row r="89" spans="1:13" s="1" customFormat="1">
       <c r="A89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8">
@@ -4467,16 +4458,16 @@
     </row>
     <row r="90" spans="1:13" s="1" customFormat="1">
       <c r="A90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="8">
@@ -4495,16 +4486,16 @@
     </row>
     <row r="91" spans="1:13" s="1" customFormat="1">
       <c r="A91" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8">
@@ -4523,16 +4514,16 @@
     </row>
     <row r="92" spans="1:13" s="1" customFormat="1">
       <c r="A92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="8">
@@ -4551,16 +4542,16 @@
     </row>
     <row r="93" spans="1:13" s="1" customFormat="1">
       <c r="A93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="8">
@@ -4579,16 +4570,16 @@
     </row>
     <row r="94" spans="1:13" s="1" customFormat="1">
       <c r="A94" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8">
@@ -4607,16 +4598,16 @@
     </row>
     <row r="95" spans="1:13" s="1" customFormat="1">
       <c r="A95" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8">
@@ -4635,16 +4626,16 @@
     </row>
     <row r="96" spans="1:13" s="1" customFormat="1">
       <c r="A96" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="8">
@@ -4663,16 +4654,16 @@
     </row>
     <row r="97" spans="1:13" s="1" customFormat="1">
       <c r="A97" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8">
@@ -4691,16 +4682,16 @@
     </row>
     <row r="98" spans="1:13" s="1" customFormat="1">
       <c r="A98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="8">
@@ -4719,16 +4710,16 @@
     </row>
     <row r="99" spans="1:13" s="1" customFormat="1">
       <c r="A99" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="8">
@@ -4747,16 +4738,16 @@
     </row>
     <row r="100" spans="1:13" s="1" customFormat="1">
       <c r="A100" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8">
@@ -4775,16 +4766,16 @@
     </row>
     <row r="101" spans="1:13" s="1" customFormat="1">
       <c r="A101" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8">
@@ -4803,16 +4794,16 @@
     </row>
     <row r="102" spans="1:13" s="1" customFormat="1">
       <c r="A102" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F102" s="8"/>
       <c r="G102" s="8">
@@ -4831,16 +4822,16 @@
     </row>
     <row r="103" spans="1:13" s="1" customFormat="1">
       <c r="A103" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8">
@@ -4859,16 +4850,16 @@
     </row>
     <row r="104" spans="1:13" s="1" customFormat="1">
       <c r="A104" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="8">
@@ -4887,16 +4878,16 @@
     </row>
     <row r="105" spans="1:13" s="1" customFormat="1">
       <c r="A105" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="8">
@@ -4915,16 +4906,16 @@
     </row>
     <row r="106" spans="1:13" s="1" customFormat="1">
       <c r="A106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="8">
@@ -4943,16 +4934,16 @@
     </row>
     <row r="107" spans="1:13" s="1" customFormat="1">
       <c r="A107" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="8">
@@ -4971,16 +4962,16 @@
     </row>
     <row r="108" spans="1:13" s="1" customFormat="1">
       <c r="A108" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="8">
@@ -4999,16 +4990,16 @@
     </row>
     <row r="109" spans="1:13" s="1" customFormat="1">
       <c r="A109" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8">
@@ -5027,16 +5018,16 @@
     </row>
     <row r="110" spans="1:13" s="1" customFormat="1">
       <c r="A110" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="8">
@@ -5055,16 +5046,16 @@
     </row>
     <row r="111" spans="1:13" s="1" customFormat="1">
       <c r="A111" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="8">
@@ -5083,16 +5074,16 @@
     </row>
     <row r="112" spans="1:13" s="1" customFormat="1">
       <c r="A112" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="8">
@@ -5111,13 +5102,13 @@
     </row>
     <row r="113" spans="1:13" s="1" customFormat="1">
       <c r="A113" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>49</v>
@@ -5139,16 +5130,16 @@
     </row>
     <row r="114" spans="1:13" s="1" customFormat="1">
       <c r="A114" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="8">
@@ -5167,16 +5158,16 @@
     </row>
     <row r="115" spans="1:13" s="1" customFormat="1">
       <c r="A115" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F115" s="8"/>
       <c r="G115" s="8">
@@ -5195,16 +5186,16 @@
     </row>
     <row r="116" spans="1:13" s="1" customFormat="1">
       <c r="A116" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8">
@@ -5223,16 +5214,16 @@
     </row>
     <row r="117" spans="1:13" s="1" customFormat="1">
       <c r="A117" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
@@ -5362,7 +5353,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2">
         <v>2016</v>
@@ -5376,7 +5367,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -5390,7 +5381,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B4">
         <v>2016</v>
@@ -5404,7 +5395,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -5418,7 +5409,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -5432,7 +5423,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -5455,7 +5446,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8">
         <v>2016</v>
@@ -5469,7 +5460,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -5483,7 +5474,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10">
         <v>2016</v>
